--- a/tests/miretests.xlsx
+++ b/tests/miretests.xlsx
@@ -11,12 +11,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
+  <si>
+    <t>Endpoint</t>
+  </si>
   <si>
     <t>Connection</t>
-  </si>
-  <si>
-    <t>Endpoint</t>
   </si>
   <si>
     <t>Load Scenario</t>
@@ -52,10 +52,10 @@
     <t>RPS P95</t>
   </si>
   <si>
-    <t>direct</t>
+    <t>/ping</t>
   </si>
   <si>
-    <t>/ping</t>
+    <t>direct</t>
   </si>
   <si>
     <t>100 users
@@ -380,6 +380,7 @@
     <xf borderId="5" fillId="0" fontId="2" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf borderId="7" fillId="3" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="9" fillId="3" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="10" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
@@ -414,7 +415,6 @@
     <xf borderId="14" fillId="0" fontId="2" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="3" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="8" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
@@ -722,7 +722,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="17.75"/>
+    <col customWidth="1" min="1" max="1" width="17.75"/>
     <col customWidth="1" min="3" max="3" width="22.5"/>
   </cols>
   <sheetData>
@@ -861,20 +861,20 @@
     </row>
     <row r="4" ht="27.0" customHeight="1">
       <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16" t="s">
+      <c r="B4" s="16"/>
+      <c r="C4" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
@@ -891,37 +891,35 @@
       <c r="AA4" s="4"/>
     </row>
     <row r="5" ht="27.0" customHeight="1">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="24">
         <v>115.0</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="24">
         <v>0.0</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="24">
         <v>13.0</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="24">
         <v>34.1</v>
       </c>
-      <c r="H5" s="24">
+      <c r="H5" s="25">
         <v>43.4</v>
       </c>
-      <c r="I5" s="25">
+      <c r="I5" s="26">
         <v>2769.0</v>
       </c>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
@@ -938,8 +936,8 @@
       <c r="AA5" s="4"/>
     </row>
     <row r="6" ht="27.0" customHeight="1">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="28" t="s">
         <v>16</v>
       </c>
@@ -978,12 +976,12 @@
       <c r="E7" s="32"/>
       <c r="F7" s="32"/>
       <c r="G7" s="32"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
@@ -1001,10 +999,10 @@
     </row>
     <row r="8" ht="27.0" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>15</v>
@@ -1021,7 +1019,7 @@
       <c r="G8" s="7">
         <v>4492.8</v>
       </c>
-      <c r="H8" s="24">
+      <c r="H8" s="25">
         <v>4770.6</v>
       </c>
       <c r="I8" s="9">
@@ -1079,20 +1077,20 @@
     </row>
     <row r="10" ht="27.0" customHeight="1">
       <c r="A10" s="15"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="16" t="s">
+      <c r="B10" s="16"/>
+      <c r="C10" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
@@ -1109,37 +1107,35 @@
       <c r="AA10" s="4"/>
     </row>
     <row r="11" ht="27.0" customHeight="1">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="11"/>
+      <c r="B11" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="24">
         <v>2508.5</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="24">
         <v>1.0</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="24">
         <v>5001.0</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="24">
         <v>4492.8</v>
       </c>
-      <c r="H11" s="24">
+      <c r="H11" s="25">
         <v>4770.6</v>
       </c>
-      <c r="I11" s="25">
+      <c r="I11" s="26">
         <v>17.0</v>
       </c>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
@@ -1156,8 +1152,8 @@
       <c r="AA11" s="4"/>
     </row>
     <row r="12" ht="27.0" customHeight="1">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="28" t="s">
         <v>16</v>
       </c>
@@ -1187,8 +1183,8 @@
       <c r="AA12" s="4"/>
     </row>
     <row r="13" ht="27.0" customHeight="1">
-      <c r="A13" s="30"/>
-      <c r="B13" s="11"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="31" t="s">
         <v>17</v>
       </c>
@@ -1196,12 +1192,12 @@
       <c r="E13" s="32"/>
       <c r="F13" s="32"/>
       <c r="G13" s="32"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
@@ -1219,10 +1215,10 @@
     </row>
     <row r="14" ht="27.0" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>15</v>
@@ -1297,20 +1293,20 @@
     </row>
     <row r="16" ht="27.0" customHeight="1">
       <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="16" t="s">
+      <c r="B16" s="16"/>
+      <c r="C16" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
@@ -1327,37 +1323,35 @@
       <c r="AA16" s="4"/>
     </row>
     <row r="17" ht="27.0" customHeight="1">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="11"/>
+      <c r="B17" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="24">
         <v>18.7</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="24">
         <v>0.0</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="24">
         <v>125.0</v>
       </c>
-      <c r="G17" s="23">
+      <c r="G17" s="24">
         <v>36.2</v>
       </c>
-      <c r="H17" s="24">
+      <c r="H17" s="25">
         <v>40.9</v>
       </c>
-      <c r="I17" s="25">
+      <c r="I17" s="26">
         <v>2676.0</v>
       </c>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
@@ -1374,8 +1368,8 @@
       <c r="AA17" s="4"/>
     </row>
     <row r="18">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
       <c r="C18" s="28" t="s">
         <v>16</v>
       </c>
@@ -1414,12 +1408,12 @@
       <c r="E19" s="32"/>
       <c r="F19" s="32"/>
       <c r="G19" s="32"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
@@ -29885,19 +29879,16 @@
       <c r="AA1000" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A19"/>
+  <mergeCells count="9">
+    <mergeCell ref="B11:B13"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B17:B19"/>
-    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A14:A19"/>
     <mergeCell ref="B2:B4"/>
-    <mergeCell ref="A5:A7"/>
     <mergeCell ref="B5:B7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B11:B13"/>
     <mergeCell ref="B8:B10"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A13"/>
   </mergeCells>
   <drawing r:id="rId1"/>
   <tableParts count="2">
